--- a/Iter4-averageCosine.xlsx
+++ b/Iter4-averageCosine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60354E15-BF7E-4D71-9929-E63C5DFAF9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E5A0DD-A671-43B1-9114-15836C936011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArchIssuesAllEmails!$M$1:$M$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ArchIssuesAllEmails!$S$1:$S$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="1918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1919">
   <si>
     <t>UID</t>
   </si>
@@ -5793,6 +5793,9 @@
   </si>
   <si>
     <t>precision</t>
+  </si>
+  <si>
+    <t>Pattern counts:</t>
   </si>
 </sst>
 </file>
@@ -5907,1154 +5910,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ArchIssuesAllEmails!$AA$2:$AA$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90909090909090906</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92307692307692313</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.90476190476190477</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.90909090909090906</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.91304347826086951</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.91666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.92307692307692313</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.92592592592592593</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.9285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.93103448275862066</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.93333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.93548387096774188</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.90909090909090906</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.91176470588235292</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.91428571428571426</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.89189189189189189</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.89743589743589747</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.85365853658536583</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.86046511627906974</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.86363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.86956521739130432</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.87234042553191493</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.87755102040816324</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.88461538461538458</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.8867924528301887</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.89090909090909087</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.8928571428571429</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.89655172413793105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.88135593220338981</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.8833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.88524590163934425</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.87096774193548387</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.87301587301587302</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.859375</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.86153846153846159</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.86363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.85074626865671643</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.83823529411764708</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.82608695652173914</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.81428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.80281690140845074</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.79166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.79452054794520544</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.78378378378378377</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.78666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.78947368421052633</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.77922077922077926</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.78205128205128205</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.77215189873417722</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.76249999999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.76543209876543206</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.76829268292682928</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.77108433734939763</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.76190476190476186</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.75294117647058822</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.7441860465116279</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.73563218390804597</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.73863636363636365</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.7303370786516854</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.72222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.7142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.70652173913043481</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.69892473118279574</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.69148936170212771</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.69473684210526321</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.68041237113402064</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.67346938775510201</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.6767676767676768</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6EBF-4128-BC5C-59CDB149427D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1046417488"/>
-        <c:axId val="1022743632"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1046417488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1022743632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1022743632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1046417488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>65315</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>146958</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>370115</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EDBB85-B46A-8638-3B5A-6A2BF61FC7BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7320,15 +6175,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA501"/>
+  <dimension ref="A1:AD501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7371,8 +6226,11 @@
       <c r="AA1" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>223064</v>
       </c>
@@ -7416,8 +6274,15 @@
         <f>Z2/Y2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <f>COUNTIF(S2:S101,AC2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5509290</v>
       </c>
@@ -7462,8 +6327,15 @@
         <f t="shared" ref="AA3:AA66" si="0">Z3/Y3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <f>COUNTIF(S2:S101,AC3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>146165</v>
       </c>
@@ -7508,8 +6380,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <f>COUNTIF(S2:S101,AC4)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5336790</v>
       </c>
@@ -7554,8 +6433,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <f>COUNTIF(S2:S101,AC5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3674594</v>
       </c>
@@ -7600,8 +6486,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <f>COUNTIF(S2:S101,AC6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4955628</v>
       </c>
@@ -7646,8 +6539,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <f>COUNTIF(S2:S101,AC7)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3442306</v>
       </c>
@@ -7692,8 +6592,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <f>COUNTIF(S2:S101,AC8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>176294</v>
       </c>
@@ -7738,8 +6645,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9">
+        <f>COUNTIF(S2:S101,AC9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4630386</v>
       </c>
@@ -7784,8 +6698,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>11</v>
+      </c>
+      <c r="AD10">
+        <f>COUNTIF(S2:S101,AC10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4115511</v>
       </c>
@@ -7830,8 +6751,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>12</v>
+      </c>
+      <c r="AD11">
+        <f>COUNTIF(S2:S101,AC11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6306019</v>
       </c>
@@ -7879,8 +6807,15 @@
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>13</v>
+      </c>
+      <c r="AD12">
+        <f>COUNTIF(S2:S101,AC12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5675171</v>
       </c>
@@ -7925,8 +6860,15 @@
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AD13">
+        <f>COUNTIF(S2:S101,AC13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5408040</v>
       </c>
@@ -7971,8 +6913,15 @@
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <f>COUNTIF(S2:S101,AC14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2792695</v>
       </c>
@@ -8017,8 +6966,15 @@
         <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>16</v>
+      </c>
+      <c r="AD15">
+        <f>COUNTIF(S2:S101,AC15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3648078</v>
       </c>
@@ -25139,8 +24095,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="S1:S101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>